--- a/optimization model/data/input-values.xlsx
+++ b/optimization model/data/input-values.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/optimization model/data/input-values.xlsx
+++ b/optimization model/data/input-values.xlsx
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
     <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,7 +645,7 @@
         <v>2025</v>
       </c>
       <c r="G6" s="10">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>2025</v>
       </c>
       <c r="G7" s="10">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>2025</v>
       </c>
       <c r="G8" s="10">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>2025</v>
       </c>
       <c r="G9" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/optimization model/data/input-values.xlsx
+++ b/optimization model/data/input-values.xlsx
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -188,6 +188,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -496,7 +497,7 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +508,7 @@
     <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,7 +646,7 @@
         <v>2025</v>
       </c>
       <c r="G6" s="10">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -782,7 +783,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="2"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>

--- a/optimization model/data/input-values.xlsx
+++ b/optimization model/data/input-values.xlsx
@@ -103,9 +103,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -170,11 +171,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -188,10 +190,14 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,9 +515,10 @@
     <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -557,7 +564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -580,7 +587,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -603,7 +610,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -626,7 +633,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -649,7 +656,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -672,7 +679,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -695,7 +702,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -718,7 +725,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -741,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -764,46 +771,133 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f>G15*30*$G$6</f>
+        <v>150000</v>
+      </c>
+      <c r="I15" s="12">
+        <f>30*$G$7</f>
+        <v>45000</v>
+      </c>
+      <c r="J15">
+        <f>SUM(H15:I15)</f>
+        <v>195000</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <f>K15/J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G16" s="2">
+        <f>0.9*G15</f>
+        <v>4.5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H18" si="0">G16*30*$G$6</f>
+        <v>135000</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" ref="I16:I18" si="1">30*$G$7</f>
+        <v>45000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J18" si="2">SUM(H16:I16)</f>
+        <v>180000</v>
+      </c>
+      <c r="K16" s="13">
+        <v>64390.92</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" ref="L16:L18" si="3">K16/J16</f>
+        <v>0.35772733333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G17" s="2">
+        <f>0.8*G15</f>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>165000</v>
+      </c>
+      <c r="K17" s="13">
+        <v>4144.25</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="3"/>
+        <v>2.5116666666666666E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <f>0.7*G15</f>
+        <v>3.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="K18" s="13">
+        <v>7455.72</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>4.97048E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G25" s="2"/>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.3">

--- a/optimization model/data/input-values.xlsx
+++ b/optimization model/data/input-values.xlsx
@@ -503,7 +503,7 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,103 +781,27 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <f>G15*30*$G$6</f>
-        <v>150000</v>
-      </c>
-      <c r="I15" s="12">
-        <f>30*$G$7</f>
-        <v>45000</v>
-      </c>
-      <c r="J15">
-        <f>SUM(H15:I15)</f>
-        <v>195000</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <f>K15/J15</f>
-        <v>0</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="I15" s="12"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G16" s="2">
-        <f>0.9*G15</f>
-        <v>4.5</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H18" si="0">G16*30*$G$6</f>
-        <v>135000</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" ref="I16:I18" si="1">30*$G$7</f>
-        <v>45000</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ref="J16:J18" si="2">SUM(H16:I16)</f>
-        <v>180000</v>
-      </c>
-      <c r="K16" s="13">
-        <v>64390.92</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" ref="L16:L18" si="3">K16/J16</f>
-        <v>0.35772733333333334</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="I16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G17" s="2">
-        <f>0.8*G15</f>
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>165000</v>
-      </c>
-      <c r="K17" s="13">
-        <v>4144.25</v>
-      </c>
-      <c r="L17" s="14">
-        <f t="shared" si="3"/>
-        <v>2.5116666666666666E-2</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="I17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G18" s="11">
-        <f>0.7*G15</f>
-        <v>3.5</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>105000</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-      <c r="K18" s="13">
-        <v>7455.72</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" si="3"/>
-        <v>4.97048E-2</v>
-      </c>
+      <c r="G18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="7:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>

--- a/optimization model/data/input-values.xlsx
+++ b/optimization model/data/input-values.xlsx
@@ -503,7 +503,7 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
         <v>2025</v>
       </c>
       <c r="G4" s="8">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
